--- a/JupyterNotebooks/AveragedIntensites/Gamma2F-HW10.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/Gamma2F-HW10.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Gamma2F-HW10.xpc" sheetId="1" r:id="rId1"/>
+    <sheet name="Gamma2F" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>HKL</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -955,7 +955,7 @@
         <v>0.9872121224675441</v>
       </c>
       <c r="E13">
-        <v>0.9803472031439407</v>
+        <v>0.9803472031439404</v>
       </c>
       <c r="F13">
         <v>1.002968609937134</v>
@@ -964,7 +964,7 @@
         <v>0.9877483336761014</v>
       </c>
       <c r="H13">
-        <v>0.998210156992094</v>
+        <v>0.998210156992095</v>
       </c>
       <c r="I13">
         <v>0.9898591310477762</v>
@@ -973,13 +973,13 @@
         <v>0.9872121224675441</v>
       </c>
       <c r="K13">
-        <v>0.9837796628057425</v>
+        <v>0.9837796628057422</v>
       </c>
       <c r="L13">
         <v>0.9933741363714381</v>
       </c>
       <c r="M13">
-        <v>0.9910575928774317</v>
+        <v>0.9910575928774318</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1031,7 +1031,7 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.994321805558371</v>
+        <v>0.9943218055583712</v>
       </c>
       <c r="D15">
         <v>1.444873440290912</v>
@@ -1040,7 +1040,7 @@
         <v>0.8857232156374659</v>
       </c>
       <c r="F15">
-        <v>0.994321805558371</v>
+        <v>0.9943218055583712</v>
       </c>
       <c r="G15">
         <v>1.112400262897122</v>
@@ -1062,6 +1062,47 @@
       </c>
       <c r="M15">
         <v>1.009834159249705</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>1.783684920404312</v>
+      </c>
+      <c r="D16">
+        <v>0.173322833693635</v>
+      </c>
+      <c r="E16">
+        <v>1.081186789411478</v>
+      </c>
+      <c r="F16">
+        <v>1.783684920404312</v>
+      </c>
+      <c r="G16">
+        <v>0.5618845500512197</v>
+      </c>
+      <c r="H16">
+        <v>1.304543750979815</v>
+      </c>
+      <c r="I16">
+        <v>1.164026418833121</v>
+      </c>
+      <c r="J16">
+        <v>0.173322833693635</v>
+      </c>
+      <c r="K16">
+        <v>0.6272548115525566</v>
+      </c>
+      <c r="L16">
+        <v>1.205469865978434</v>
+      </c>
+      <c r="M16">
+        <v>1.011441543895597</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AveragedIntensites/Gamma2F-HW10.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/Gamma2F-HW10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>HKL</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
+  </si>
+  <si>
+    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
@@ -498,37 +501,37 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1069,7 +1072,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16">
         <v>1.783684920404312</v>

--- a/JupyterNotebooks/AveragedIntensites/Gamma2F-HW10.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/Gamma2F-HW10.xlsx
@@ -958,7 +958,7 @@
         <v>0.9872121224675441</v>
       </c>
       <c r="E13">
-        <v>0.9803472031439404</v>
+        <v>0.9803472031439407</v>
       </c>
       <c r="F13">
         <v>1.002968609937134</v>
@@ -967,7 +967,7 @@
         <v>0.9877483336761014</v>
       </c>
       <c r="H13">
-        <v>0.998210156992095</v>
+        <v>0.998210156992094</v>
       </c>
       <c r="I13">
         <v>0.9898591310477762</v>
@@ -976,13 +976,13 @@
         <v>0.9872121224675441</v>
       </c>
       <c r="K13">
-        <v>0.9837796628057422</v>
+        <v>0.9837796628057425</v>
       </c>
       <c r="L13">
         <v>0.9933741363714381</v>
       </c>
       <c r="M13">
-        <v>0.9910575928774318</v>
+        <v>0.9910575928774317</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1034,7 +1034,7 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9943218055583712</v>
+        <v>0.994321805558371</v>
       </c>
       <c r="D15">
         <v>1.444873440290912</v>
@@ -1043,7 +1043,7 @@
         <v>0.8857232156374659</v>
       </c>
       <c r="F15">
-        <v>0.9943218055583712</v>
+        <v>0.994321805558371</v>
       </c>
       <c r="G15">
         <v>1.112400262897122</v>

--- a/JupyterNotebooks/AveragedIntensites/Gamma2F-HW10.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/Gamma2F-HW10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>HKL</t>
   </si>
@@ -40,6 +40,18 @@
     <t>Ring Perpendicular to TD</t>
   </si>
   <si>
+    <t>Gaussian-Quadrature</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-15rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-3space</t>
+  </si>
+  <si>
     <t>NoRotation-tilt60deg</t>
   </si>
   <si>
@@ -56,9 +68,6 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
-  </si>
-  <si>
-    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
@@ -449,7 +458,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -501,37 +510,37 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -829,37 +838,37 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.2223560000000004</v>
+        <v>1.783684920404312</v>
       </c>
       <c r="D10">
-        <v>0.05729200000000033</v>
+        <v>0.173322833693635</v>
       </c>
       <c r="E10">
-        <v>0.9754359999999993</v>
+        <v>1.081186789411478</v>
       </c>
       <c r="F10">
-        <v>0.2223560000000004</v>
+        <v>1.783684920404312</v>
       </c>
       <c r="G10">
-        <v>0.4679440000000006</v>
+        <v>0.5618845500512197</v>
       </c>
       <c r="H10">
-        <v>6.532816000000011</v>
+        <v>1.304543750979815</v>
       </c>
       <c r="I10">
-        <v>0.7868799999999988</v>
+        <v>1.164026418833121</v>
       </c>
       <c r="J10">
-        <v>0.05729200000000033</v>
+        <v>0.173322833693635</v>
       </c>
       <c r="K10">
-        <v>0.5163639999999998</v>
+        <v>0.6272548115525566</v>
       </c>
       <c r="L10">
-        <v>0.3693600000000001</v>
+        <v>1.205469865978434</v>
       </c>
       <c r="M10">
-        <v>1.507120666666668</v>
+        <v>1.011441543895597</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -870,37 +879,37 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>1.234104139524556</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.09421125389182516</v>
       </c>
       <c r="E11">
-        <v>0.841375</v>
+        <v>1.009247351647443</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>1.234104139524556</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.8534853457750864</v>
       </c>
       <c r="H11">
-        <v>11.07314999999996</v>
+        <v>0.9173631226713832</v>
       </c>
       <c r="I11">
-        <v>0.5566374999999997</v>
+        <v>1.08009508343994</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.09421125389182516</v>
       </c>
       <c r="K11">
-        <v>0.4206875</v>
+        <v>0.5517293027696342</v>
       </c>
       <c r="L11">
-        <v>0.21034375</v>
+        <v>0.892916721147095</v>
       </c>
       <c r="M11">
-        <v>2.078527083333327</v>
+        <v>0.8647510494917056</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -911,37 +920,37 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.4172931848192001</v>
+        <v>1.218473216982445</v>
       </c>
       <c r="D12">
-        <v>0.436458200064002</v>
+        <v>0.09438252217131357</v>
       </c>
       <c r="E12">
-        <v>0.9536738188287979</v>
+        <v>1.012796698912748</v>
       </c>
       <c r="F12">
-        <v>0.4172931848192001</v>
+        <v>1.218473216982445</v>
       </c>
       <c r="G12">
-        <v>0.3918607978496008</v>
+        <v>0.8551204057162665</v>
       </c>
       <c r="H12">
-        <v>6.578440930508799</v>
+        <v>0.9136088213688531</v>
       </c>
       <c r="I12">
-        <v>0.7710799816703973</v>
+        <v>1.081735092580815</v>
       </c>
       <c r="J12">
-        <v>0.436458200064002</v>
+        <v>0.09438252217131357</v>
       </c>
       <c r="K12">
-        <v>0.6950660094464</v>
+        <v>0.5535896105420308</v>
       </c>
       <c r="L12">
-        <v>0.5561795971328001</v>
+        <v>0.8860314137622378</v>
       </c>
       <c r="M12">
-        <v>1.591467818956799</v>
+        <v>0.8626861262887401</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -952,37 +961,37 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.002968609937134</v>
+        <v>1.232314449459236</v>
       </c>
       <c r="D13">
-        <v>0.9872121224675441</v>
+        <v>0.09417246879288911</v>
       </c>
       <c r="E13">
-        <v>0.9803472031439407</v>
+        <v>1.010869576858594</v>
       </c>
       <c r="F13">
-        <v>1.002968609937134</v>
+        <v>1.232314449459236</v>
       </c>
       <c r="G13">
-        <v>0.9877483336761014</v>
+        <v>0.8533579554404602</v>
       </c>
       <c r="H13">
-        <v>0.998210156992094</v>
+        <v>0.9104388036616478</v>
       </c>
       <c r="I13">
-        <v>0.9898591310477762</v>
+        <v>1.080998769329435</v>
       </c>
       <c r="J13">
-        <v>0.9872121224675441</v>
+        <v>0.09417246879288911</v>
       </c>
       <c r="K13">
-        <v>0.9837796628057425</v>
+        <v>0.5525210228257418</v>
       </c>
       <c r="L13">
-        <v>0.9933741363714381</v>
+        <v>0.8924177361424888</v>
       </c>
       <c r="M13">
-        <v>0.9910575928774317</v>
+        <v>0.8636920039237103</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -993,37 +1002,37 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.7388535133886436</v>
+        <v>0.2223560000000004</v>
       </c>
       <c r="D14">
-        <v>1.035856628988794</v>
+        <v>0.05729200000000033</v>
       </c>
       <c r="E14">
-        <v>1.241266328613209</v>
+        <v>0.9754359999999993</v>
       </c>
       <c r="F14">
-        <v>0.7388535133886436</v>
+        <v>0.2223560000000004</v>
       </c>
       <c r="G14">
-        <v>1.061311805972666</v>
+        <v>0.4679440000000006</v>
       </c>
       <c r="H14">
-        <v>1.041693318002285</v>
+        <v>6.532816000000011</v>
       </c>
       <c r="I14">
-        <v>1.026721555368001</v>
+        <v>0.7868799999999988</v>
       </c>
       <c r="J14">
-        <v>1.035856628988794</v>
+        <v>0.05729200000000033</v>
       </c>
       <c r="K14">
-        <v>1.138561478801002</v>
+        <v>0.5163639999999998</v>
       </c>
       <c r="L14">
-        <v>0.9387074960948225</v>
+        <v>0.3693600000000001</v>
       </c>
       <c r="M14">
-        <v>1.024283858388933</v>
+        <v>1.507120666666668</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1034,37 +1043,37 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.994321805558371</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>1.444873440290912</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>0.8857232156374659</v>
+        <v>0.841375</v>
       </c>
       <c r="F15">
-        <v>0.994321805558371</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>1.112400262897122</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>0.7004903412636624</v>
+        <v>11.07314999999996</v>
       </c>
       <c r="I15">
-        <v>0.921195889850697</v>
+        <v>0.5566374999999997</v>
       </c>
       <c r="J15">
-        <v>1.444873440290912</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>1.165298327964189</v>
+        <v>0.4206875</v>
       </c>
       <c r="L15">
-        <v>1.07981006676128</v>
+        <v>0.21034375</v>
       </c>
       <c r="M15">
-        <v>1.009834159249705</v>
+        <v>2.078527083333327</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1075,37 +1084,160 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.783684920404312</v>
+        <v>0.4172931848192001</v>
       </c>
       <c r="D16">
-        <v>0.173322833693635</v>
+        <v>0.436458200064002</v>
       </c>
       <c r="E16">
-        <v>1.081186789411478</v>
+        <v>0.9536738188287979</v>
       </c>
       <c r="F16">
-        <v>1.783684920404312</v>
+        <v>0.4172931848192001</v>
       </c>
       <c r="G16">
-        <v>0.5618845500512197</v>
+        <v>0.3918607978496008</v>
       </c>
       <c r="H16">
-        <v>1.304543750979815</v>
+        <v>6.578440930508799</v>
       </c>
       <c r="I16">
-        <v>1.164026418833121</v>
+        <v>0.7710799816703973</v>
       </c>
       <c r="J16">
-        <v>0.173322833693635</v>
+        <v>0.436458200064002</v>
       </c>
       <c r="K16">
-        <v>0.6272548115525566</v>
+        <v>0.6950660094464</v>
       </c>
       <c r="L16">
-        <v>1.205469865978434</v>
+        <v>0.5561795971328001</v>
       </c>
       <c r="M16">
-        <v>1.011441543895597</v>
+        <v>1.591467818956799</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>1.002968609937134</v>
+      </c>
+      <c r="D17">
+        <v>0.9872121224675441</v>
+      </c>
+      <c r="E17">
+        <v>0.9803472031439404</v>
+      </c>
+      <c r="F17">
+        <v>1.002968609937134</v>
+      </c>
+      <c r="G17">
+        <v>0.9877483336761014</v>
+      </c>
+      <c r="H17">
+        <v>0.998210156992095</v>
+      </c>
+      <c r="I17">
+        <v>0.9898591310477762</v>
+      </c>
+      <c r="J17">
+        <v>0.9872121224675441</v>
+      </c>
+      <c r="K17">
+        <v>0.9837796628057422</v>
+      </c>
+      <c r="L17">
+        <v>0.9933741363714381</v>
+      </c>
+      <c r="M17">
+        <v>0.9910575928774318</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>0.7388535133886436</v>
+      </c>
+      <c r="D18">
+        <v>1.035856628988794</v>
+      </c>
+      <c r="E18">
+        <v>1.241266328613209</v>
+      </c>
+      <c r="F18">
+        <v>0.7388535133886436</v>
+      </c>
+      <c r="G18">
+        <v>1.061311805972666</v>
+      </c>
+      <c r="H18">
+        <v>1.041693318002285</v>
+      </c>
+      <c r="I18">
+        <v>1.026721555368001</v>
+      </c>
+      <c r="J18">
+        <v>1.035856628988794</v>
+      </c>
+      <c r="K18">
+        <v>1.138561478801002</v>
+      </c>
+      <c r="L18">
+        <v>0.9387074960948225</v>
+      </c>
+      <c r="M18">
+        <v>1.024283858388933</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>0.9943218055583712</v>
+      </c>
+      <c r="D19">
+        <v>1.444873440290912</v>
+      </c>
+      <c r="E19">
+        <v>0.8857232156374659</v>
+      </c>
+      <c r="F19">
+        <v>0.9943218055583712</v>
+      </c>
+      <c r="G19">
+        <v>1.112400262897122</v>
+      </c>
+      <c r="H19">
+        <v>0.7004903412636624</v>
+      </c>
+      <c r="I19">
+        <v>0.921195889850697</v>
+      </c>
+      <c r="J19">
+        <v>1.444873440290912</v>
+      </c>
+      <c r="K19">
+        <v>1.165298327964189</v>
+      </c>
+      <c r="L19">
+        <v>1.07981006676128</v>
+      </c>
+      <c r="M19">
+        <v>1.009834159249705</v>
       </c>
     </row>
   </sheetData>
